--- a/data/trans_dic/P20_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P20_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho</t>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>26,0%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,63; 26,79</t>
+          <t>16,46; 36,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,55; 26,77</t>
+          <t>14,78; 38,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,31; 33,59</t>
+          <t>22,47; 35,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,62; 33,22</t>
+          <t>23,21; 35,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,86; 28,53</t>
+          <t>21,54; 31,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,95; 27,69</t>
+          <t>21,02; 33,48</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>25,71%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,46; 24,13</t>
+          <t>12,5; 26,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,09; 32,01</t>
+          <t>12,63; 25,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,21; 40,31</t>
+          <t>25,59; 40,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,35; 39,56</t>
+          <t>24,37; 38,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,45; 31,2</t>
+          <t>21,12; 30,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,24; 32,52</t>
+          <t>21,2; 31,4</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>22,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>17,57%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,66; 37,38</t>
+          <t>5,7; 39,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 28,28</t>
+          <t>1,97; 22,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,85; 38,8</t>
+          <t>12,2; 40,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,26; 42,09</t>
+          <t>13,64; 44,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,29; 34,27</t>
+          <t>11,94; 35,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,62; 31,73</t>
+          <t>9,3; 28,69</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>24,99%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,57; 24,21</t>
+          <t>16,3; 28,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 23,82</t>
+          <t>14,8; 27,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,5; 34,4</t>
+          <t>24,63; 33,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,64; 33,93</t>
+          <t>25,15; 34,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,56; 27,83</t>
+          <t>22,41; 29,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,64; 27,56</t>
+          <t>21,62; 28,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>87574</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>97432</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>120133</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>145512</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>207707</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>242944</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60192; 132462</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>63565; 164707</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>97813; 152971</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>117104; 177734</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>172532; 254037</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>196491; 312923</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>56139</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>66688</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>113781</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>134391</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>169919</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>201079</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>38081; 80908</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>45057; 92520</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>89586; 141684</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>103657; 165691</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>138264; 201972</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>165764; 245507</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17484</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8804</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>19937</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26862</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>37420</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35665</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4834; 33599</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2007; 23246</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10082; 33123</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13802; 44700</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19985; 59265</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18877; 58222</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>161196</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>172924</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>253851</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>306764</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>415047</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>479688</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>123088; 213251</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>131536; 246187</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>213780; 294983</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>259255; 354124</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>363857; 478314</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>415080; 555329</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>